--- a/data/Marco MendozaT3-2025.xlsx
+++ b/data/Marco MendozaT3-2025.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>64.55096309999998</v>
+        <v>13.52329232999998</v>
       </c>
     </row>
     <row r="15">
